--- a/model_logiczny.xlsx
+++ b/model_logiczny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4be20116ea0b14e8/Pulpit/ModelowanieDanych/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-11\Desktop\br\Modelowanie-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{E61F462F-32B3-4C9F-B36E-9004DE01FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705C1028-0137-4989-B69E-AC1777064740}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3183FB8-DD25-4388-A02E-BC7206120DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabele" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Klucze" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v5.0" hidden="1">Pola!$N$25</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">Pola!$O$25</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">Pola!$O$25</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">Pola!$P$25</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="82">
   <si>
     <t>Krotność</t>
   </si>
@@ -118,73 +122,160 @@
     <t>item_id</t>
   </si>
   <si>
-    <t>portion</t>
-  </si>
-  <si>
     <t>flavor</t>
   </si>
   <si>
     <t>topping</t>
   </si>
   <si>
-    <t>item_value</t>
-  </si>
-  <si>
-    <t>container_name</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>container_price</t>
-  </si>
-  <si>
-    <t>cone_type</t>
-  </si>
-  <si>
-    <t>cone_flavor</t>
-  </si>
-  <si>
-    <t>cup_lid</t>
-  </si>
-  <si>
     <t>RGB</t>
   </si>
   <si>
-    <t>color_name</t>
-  </si>
-  <si>
     <t>int(liczba)</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>varcahr(20)</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
     <t>color_id</t>
   </si>
   <si>
-    <t>cup_id</t>
-  </si>
-  <si>
     <t>order_id,</t>
   </si>
   <si>
-    <t>item_id,</t>
-  </si>
-  <si>
-    <t>Pole które powinno być unikalne autoinkrementowane oraz musi być wymagalne.</t>
+    <t>order</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>portion_size</t>
+  </si>
+  <si>
+    <t>flavors</t>
+  </si>
+  <si>
+    <t>toppings</t>
+  </si>
+  <si>
+    <t>tabela walidacyjna</t>
+  </si>
+  <si>
+    <t>items_flavors</t>
+  </si>
+  <si>
+    <t>items_toppings</t>
+  </si>
+  <si>
+    <t>falvor</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>cones_flavors</t>
+  </si>
+  <si>
+    <t>ice_cream_flavors</t>
+  </si>
+  <si>
+    <t>items_ice_cream_flavors</t>
+  </si>
+  <si>
+    <t>cones_types</t>
+  </si>
+  <si>
+    <t>cones flavors</t>
+  </si>
+  <si>
+    <t>cones types</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>ice_creams_flavors</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>varchar20</t>
+  </si>
+  <si>
+    <t>varchar(7)</t>
+  </si>
+  <si>
+    <t>tabela z danymi</t>
+  </si>
+  <si>
+    <t>item_topping</t>
+  </si>
+  <si>
+    <t>order_id+item_id,</t>
+  </si>
+  <si>
+    <t>name,rgb</t>
+  </si>
+  <si>
+    <t>cup+color</t>
+  </si>
+  <si>
+    <t>container_id</t>
+  </si>
+  <si>
+    <t>containter_id</t>
+  </si>
+  <si>
+    <t>rgb</t>
+  </si>
+  <si>
+    <t>cup_id+color</t>
+  </si>
+  <si>
+    <t>item_id+flavor</t>
+  </si>
+  <si>
+    <t>item_id+toppings</t>
+  </si>
+  <si>
+    <t>restrykcyjna</t>
+  </si>
+  <si>
+    <t>kaskadowa</t>
+  </si>
+  <si>
+    <t>restrykcjna</t>
   </si>
 </sst>
 </file>
@@ -239,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -436,28 +527,74 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -466,62 +603,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -532,7 +706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,6 +743,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,23 +758,58 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,10 +856,678 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="colorVal">
+        <cx:f dir="row">_xlchart.v5.3</cx:f>
+        <cx:nf dir="row">_xlchart.v5.2</cx:nf>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="regionMap" uniqueId="{C3F27671-51FE-4991-B4F5-B12188A5344C}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:geography cultureLanguage="pl-PL" cultureRegion="PL" attribution="Obsługiwane przez usługę Bing">
+              <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
+                <cx:binary>BMFRCoAgDADQq4gHcBV9SXUXWTMFdeEG7fi9d6BFbJSms96GRLTTF9U3AggW6klCrzhZOGtA7sA5
+VyS4Z/rqeGBb1h2wpKlk3sH1AwAA//8=</cx:binary>
+              </cx:geoCache>
+            </cx:geography>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="r" align="min" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="494">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="850"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="3175">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414812</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146325</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Wykres 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D0CFE1-80E0-4E55-BDF9-CD560E87560F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="10745390" y="6291856"/>
+              <a:ext cx="45719" cy="45719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>Ten wykres jest niedostępny w Twojej wersji programu Excel.
+Edytowanie tego kształtu lub zapisanie tego skoroszytu w innym formacie pliku spowoduje trwałe uszkodzenie wykresu.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -683,9 +1565,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,9 +1600,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,9 +1652,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -929,46 +1845,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -976,7 +1898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
@@ -984,18 +1906,68 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1010,144 +1982,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="19" t="s">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="F4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="F5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="F6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="8"/>
+      <c r="F9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{22B4F6C1-4D46-4DF1-A76B-FD1C5CBD1CC2}">
-      <formula1>$D$14:$D$15</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D9" xr:uid="{22B4F6C1-4D46-4DF1-A76B-FD1C5CBD1CC2}">
+      <formula1>$D$13:$D$14</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1161,415 +2267,577 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:E41"/>
+  <dimension ref="B1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="I2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="I3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="C4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="I4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="C6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="I7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="I8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="C10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="14"/>
+      <c r="I10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>31</v>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="E12" s="14"/>
+      <c r="I12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="14"/>
+      <c r="I13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="I14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="I19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="I20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="I23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="26"/>
+      <c r="C24" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="I24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="14"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="I27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="I28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+      <c r="C41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
+      <c r="C48" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B32:E32"/>
+  <mergeCells count="6">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1577,105 +2845,196 @@
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Przygotował(a) Katarzyna Wójcik &amp;D&amp;RStrona &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="D15" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
